--- a/FL21_DATA317_Electrical_Usage.xlsx
+++ b/FL21_DATA317_Electrical_Usage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoreyumba/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8F9826-49F6-F042-8918-BD5022770F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A5892-BADB-6C4E-8535-C96BF3761E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13100" yWindow="4620" windowWidth="20500" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A12:A21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -555,6 +555,56 @@
       </c>
       <c r="E11">
         <v>1544.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FL21_DATA317_Electrical_Usage.xlsx
+++ b/FL21_DATA317_Electrical_Usage.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theodoreyumba/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cord0-my.sharepoint.com/personal/ndaxvig_cord_edu/Documents/Backup_18Aug2021/Teaching/Fall_2021/FL21_DATA317/ElectricalForecastingChallenge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A5892-BADB-6C4E-8535-C96BF3761E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13100" yWindow="4620" windowWidth="20500" windowHeight="13460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
   <si>
     <t>Grant</t>
   </si>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -357,25 +360,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="6" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14" style="2" customWidth="1"/>
+    <col min="3" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -386,225 +390,368 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>4282.5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>469.06</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1017.5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1548.72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4417.91</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>480.63</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1041.8800000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1546.31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3962.91</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>437.31</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>980.44</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1497.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>4086.81</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>413.44</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>983.56</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1533.56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>4187.53</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>450.11</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1005.84</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1531.59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3622.53</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>411.06</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>803.94</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1220.1400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B8" s="2">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3477.22</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>409.88</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>701.63</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1301.3599999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2892.28</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>422.19</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>949.63</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1510.84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3504.22</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>415</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1013.75</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1533.88</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3454.34</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>401.5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1024.75</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1544.22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44455</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3728.78</v>
+      </c>
+      <c r="D12">
+        <v>411.56</v>
+      </c>
+      <c r="E12">
+        <v>967.5</v>
+      </c>
+      <c r="F12">
+        <v>1583.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44456</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3026.16</v>
+      </c>
+      <c r="D13">
+        <v>404.75</v>
+      </c>
+      <c r="E13">
+        <v>980.13</v>
+      </c>
+      <c r="F13">
+        <v>1326.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44457</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>3501.97</v>
+      </c>
+      <c r="D14">
+        <v>367.81</v>
+      </c>
+      <c r="E14">
+        <v>739.25</v>
+      </c>
+      <c r="F14">
+        <v>1183.1600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44458</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>4272.03</v>
+      </c>
+      <c r="D15">
+        <v>427.44</v>
+      </c>
+      <c r="E15">
+        <v>704.88</v>
+      </c>
+      <c r="F15">
+        <v>1379.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44459</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2494.7199999999998</v>
+      </c>
+      <c r="D16">
+        <v>439.44</v>
+      </c>
+      <c r="E16">
+        <v>990.5</v>
+      </c>
+      <c r="F16">
+        <v>1510.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44460</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2543.16</v>
+      </c>
+      <c r="D17">
+        <v>407.88</v>
+      </c>
+      <c r="E17">
+        <v>989.13</v>
+      </c>
+      <c r="F17">
+        <v>1513.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>44461</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>2960.94</v>
+      </c>
+      <c r="D18">
+        <v>404.69</v>
+      </c>
+      <c r="E18">
+        <v>944.75</v>
+      </c>
+      <c r="F18">
+        <v>1508.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>10</v>
+        <v>44462</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>3227.66</v>
+      </c>
+      <c r="D19">
+        <v>405.69</v>
+      </c>
+      <c r="E19">
+        <v>813.19</v>
+      </c>
+      <c r="F19">
+        <v>1554.05</v>
       </c>
     </row>
   </sheetData>
@@ -614,6 +761,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5CD8194DC8A374EA144377996C1329E" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1a914b0dc80be529d6910093f30595ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dce7e845-3e54-477c-bbed-7dda4c5910b6" xmlns:ns4="072e8d7e-e386-4c4b-9366-89d81968525f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dac10bb31e1b26ef746fcc2df84f73f" ns3:_="" ns4:_="">
     <xsd:import namespace="dce7e845-3e54-477c-bbed-7dda4c5910b6"/>
@@ -842,22 +1004,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146C613B-F28D-4EB3-9A97-749A292C2532}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="072e8d7e-e386-4c4b-9366-89d81968525f"/>
+    <ds:schemaRef ds:uri="dce7e845-3e54-477c-bbed-7dda4c5910b6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B332A0C-3F04-4484-B493-A00C9A761A16}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA10E0C2-9109-4306-8F7D-FDA418038556}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -874,29 +1046,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146C613B-F28D-4EB3-9A97-749A292C2532}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dce7e845-3e54-477c-bbed-7dda4c5910b6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="072e8d7e-e386-4c4b-9366-89d81968525f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B332A0C-3F04-4484-B493-A00C9A761A16}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>